--- a/data/outputs/management/56.xlsx
+++ b/data/outputs/management/56.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ93"/>
+  <dimension ref="A1:BR93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4519741</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1124,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4529797</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1315,6 +1330,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4532494</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1524,6 +1544,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1737,6 +1758,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1930,6 +1952,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2147,6 +2170,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>3985401</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2384,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4537543</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2573,6 +2606,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2774,6 +2808,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2983,6 +3018,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3196,6 +3232,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3401,6 +3438,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3602,6 +3640,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3815,6 +3854,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4024,6 +4064,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4229,6 +4270,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4430,6 +4472,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4619,6 +4662,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4828,6 +4872,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5029,6 +5074,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5242,6 +5288,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5463,6 +5510,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5680,6 +5728,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5885,6 +5934,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6102,6 +6152,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6311,6 +6362,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4455791</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6524,6 +6580,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6729,6 +6786,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6946,6 +7004,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7155,6 +7214,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7344,6 +7404,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7553,6 +7614,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7754,6 +7816,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3972343</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7955,6 +8022,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4003752</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8156,6 +8228,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3719640</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8369,6 +8446,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4648558</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8570,6 +8652,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>7133017</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8771,6 +8858,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4099395</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8964,6 +9056,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>3852716</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9177,6 +9274,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9390,6 +9488,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9603,6 +9702,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>2674089</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9820,6 +9924,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10025,6 +10130,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4095452</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10234,6 +10344,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10447,6 +10558,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4094496</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10652,6 +10768,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4096462</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10853,6 +10974,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>3991142</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11058,6 +11184,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11263,6 +11390,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>3995683</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11480,6 +11612,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11681,6 +11814,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11874,6 +12008,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12079,6 +12214,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12280,6 +12416,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3988512</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12481,6 +12622,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12682,6 +12824,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12891,6 +13034,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13092,6 +13236,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13293,6 +13438,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13494,6 +13640,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13699,6 +13846,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13900,6 +14048,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14097,6 +14246,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>17748747</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14306,6 +14460,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>3721576</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14499,6 +14658,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14708,6 +14868,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14917,6 +15078,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>4008825</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15118,6 +15284,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15315,6 +15482,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15520,6 +15688,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15721,6 +15890,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15922,6 +16092,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16135,6 +16306,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16324,6 +16496,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16521,6 +16694,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16706,6 +16880,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>2961618</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16911,6 +17090,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17122,6 +17302,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17323,6 +17504,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17528,6 +17710,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17729,6 +17912,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17918,6 +18102,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18127,6 +18312,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18328,6 +18514,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4256618</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18533,6 +18724,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18734,6 +18926,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>18688788</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18939,6 +19136,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>15410470</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19148,6 +19350,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19353,6 +19556,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19558,6 +19762,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
